--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-Itgb2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H2">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N2">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O2">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P2">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q2">
-        <v>3934.167790167195</v>
+        <v>0.0012225672</v>
       </c>
       <c r="R2">
-        <v>35407.51011150476</v>
+        <v>0.0110031048</v>
       </c>
       <c r="S2">
-        <v>0.1416184349491122</v>
+        <v>2.159758720957217E-05</v>
       </c>
       <c r="T2">
-        <v>0.1416184349491122</v>
+        <v>2.159758720957217E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H3">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.510969</v>
       </c>
       <c r="O3">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P3">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q3">
-        <v>7.981082282601666</v>
+        <v>0.00707692065</v>
       </c>
       <c r="R3">
-        <v>71.829740543415</v>
+        <v>0.06369228585</v>
       </c>
       <c r="S3">
-        <v>0.0002872954185856169</v>
+        <v>0.0001250192307740607</v>
       </c>
       <c r="T3">
-        <v>0.000287295418585617</v>
+        <v>0.0001250192307740607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>849.531647</v>
       </c>
       <c r="I4">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J4">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N4">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O4">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P4">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q4">
-        <v>23775.11878119538</v>
+        <v>8.332206393775998</v>
       </c>
       <c r="R4">
-        <v>213976.0690307584</v>
+        <v>74.98985754398399</v>
       </c>
       <c r="S4">
-        <v>0.8558341413239625</v>
+        <v>0.1471948161522181</v>
       </c>
       <c r="T4">
-        <v>0.8558341413239626</v>
+        <v>0.1471948161522181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>849.531647</v>
       </c>
       <c r="I5">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J5">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,10 +744,10 @@
         <v>0.510969</v>
       </c>
       <c r="O5">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P5">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q5">
         <v>48.23159290399366</v>
@@ -756,10 +756,10 @@
         <v>434.084336135943</v>
       </c>
       <c r="S5">
-        <v>0.001736195064998995</v>
+        <v>0.852048078830011</v>
       </c>
       <c r="T5">
-        <v>0.001736195064998996</v>
+        <v>0.852048078830011</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.519022</v>
       </c>
       <c r="I6">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J6">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N6">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O6">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P6">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q6">
-        <v>14.52542673793244</v>
+        <v>0.005090567775999998</v>
       </c>
       <c r="R6">
-        <v>130.728840641392</v>
+        <v>0.04581510998399999</v>
       </c>
       <c r="S6">
-        <v>0.0005228725136572172</v>
+        <v>8.992878386431262E-05</v>
       </c>
       <c r="T6">
-        <v>0.0005228725136572172</v>
+        <v>8.992878386431261E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.519022</v>
       </c>
       <c r="I7">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J7">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>0.510969</v>
       </c>
       <c r="O7">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P7">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q7">
         <v>0.02946712803533333</v>
@@ -880,10 +880,10 @@
         <v>0.265204152318</v>
       </c>
       <c r="S7">
-        <v>1.060729683476887E-06</v>
+        <v>0.0005205594159231009</v>
       </c>
       <c r="T7">
-        <v>1.060729683476887E-06</v>
+        <v>0.0005205594159231008</v>
       </c>
     </row>
   </sheetData>
